--- a/Names.xlsx
+++ b/Names.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Tsoomoo</t>
   </si>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Tsoomoo</t>
   </si>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Tsoomoo</t>
   </si>
